--- a/data/case1/13/P2_13.xlsx
+++ b/data/case1/13/P2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.054810311522246025</v>
+        <v>0.02080121282546088</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999988903398673</v>
+        <v>-0.0099999990691621576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999988998421543</v>
+        <v>-0.0089999990810056829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398570633829223</v>
+        <v>0.28398477809229306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999989234640339</v>
+        <v>-0.0059999991098553807</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999988847891927</v>
+        <v>-0.0059999990844907813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998723355006</v>
+        <v>-0.019999998938290631</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998712907363</v>
+        <v>-0.019999998934460805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999988588881337</v>
+        <v>-0.0059999990769776801</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999988488215195</v>
+        <v>-0.0059999990761738786</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.035921189407766008</v>
+        <v>-0.0044999990916174681</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999988483032674</v>
+        <v>0.081974786783316045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999988495889056</v>
+        <v>-0.0059999990530705816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998782988186</v>
+        <v>-0.011999998983499793</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999988532961623</v>
+        <v>-0.0059999990391794711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999988576673324</v>
+        <v>-0.034603001594259108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.005999998868198908</v>
+        <v>-0.0059999990284076432</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.040892313955629866</v>
+        <v>-0.0089999989967237681</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.008999998900841355</v>
+        <v>-0.0089999990788438566</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999988917544016</v>
+        <v>-0.01115191184000075</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999988905082873</v>
+        <v>-0.0089999990693927501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999988898288308</v>
+        <v>-0.0089999990686502329</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999988910705042</v>
+        <v>-0.0089999990741089775</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0419999985024333</v>
+        <v>-0.041999998718291742</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998495103164</v>
+        <v>-0.041999998711357733</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999988827463824</v>
+        <v>-0.0059999990813786042</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999988780434776</v>
+        <v>-0.0059999990772832135</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999988595560438</v>
+        <v>-0.0059999990589609808</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998779824494</v>
+        <v>-0.011999998984823179</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998684049558</v>
+        <v>-0.019999998896340632</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998732372788</v>
+        <v>-0.0029878909661693598</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.012423893675794773</v>
+        <v>-0.029664752671738626</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999988326362441</v>
+        <v>-0.00599999903044246</v>
       </c>
     </row>
   </sheetData>
